--- a/biology/Botanique/Pittosporaceae/Pittosporaceae.xlsx
+++ b/biology/Botanique/Pittosporaceae/Pittosporaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Pittosporaceae (Pittosporacées) est constituée de plantes dicotylédones ; elle comprend 200 espèces réparties en 9 à 11 genres.
 Ce sont des arbres, des arbustes ou des lianes, certains à huiles essentielles, à sève colorée, ou résineux, à feuilles persistantes des régions tempérées à tropicales de l'ancien monde (en particulier d'Australie).
-La classification phylogénétique APG II (2003)[1] situe cette famille dans l'ordre des Apiales.
+La classification phylogénétique APG II (2003) situe cette famille dans l'ordre des Apiales.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Pittosporum lui-même créé en 1788 par Joseph Banks et Joseph Gärtner dans leur ouvrage De Fructibus et Seminibus Plantarum et tiré du grec "πίττα" (pitta, « poix ») et "σπορά" (sporá, « spore ») pour signifier qu'une résine poisseuse recouvre les graines.
 </t>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (16 octobre 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (16 octobre 2016) :
 genre Bentleya
 genre Billardiera
 genre Bursaria
@@ -554,7 +570,7 @@
 genre Citriobatus
 genre Hymenosporum
 genre Pittosporum
-Selon NCBI  (16 octobre 2016)[3] :
+Selon NCBI  (16 octobre 2016) :
 genre Auranticarpa
 genre Bentleya
 genre Billardiera
@@ -564,7 +580,7 @@
 genre Marianthus
 genre Pittosporum
 genre Rhytidosporum
-Selon DELTA Angio           (16 octobre 2016)[4] :
+Selon DELTA Angio           (16 octobre 2016) :
 genre Bentleya
 genre Billardiera
 genre Bursaria
@@ -576,7 +592,7 @@
 genre Pronaya
 genre Rhytidosporum
 genre Sollya
-Selon ITIS      (16 octobre 2016)[5] :
+Selon ITIS      (16 octobre 2016) :
 genre Billardiera Sm.
 genre Hymenosporum R. Br. ex F. Muell.
 genre Pittosporum Banks ex Soland.</t>
@@ -607,9 +623,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (12 Jul 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (12 Jul 2010) :
 genre Auranticarpa
 Auranticarpa edentata
 Auranticarpa ilicifolia
